--- a/todo list.xlsx
+++ b/todo list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="163">
   <si>
     <t>Framwork</t>
   </si>
@@ -488,6 +488,24 @@
   </si>
   <si>
     <t>Understand JSF and Implement sample</t>
+  </si>
+  <si>
+    <t>ActiveMQ</t>
+  </si>
+  <si>
+    <t>RabitMQ</t>
+  </si>
+  <si>
+    <t>Unit testing</t>
+  </si>
+  <si>
+    <t>Spring Controller Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spring DAO testing </t>
+  </si>
+  <si>
+    <t>Integration testing</t>
   </si>
 </sst>
 </file>
@@ -650,7 +668,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -701,6 +719,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1085,10 +1112,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E108"/>
+  <dimension ref="A1:E113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C115" sqref="C115"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111:B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1122,7 +1149,7 @@
       <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="25" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1137,7 +1164,7 @@
       <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
@@ -1148,7 +1175,7 @@
       <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="22"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
@@ -1159,7 +1186,7 @@
       <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="22"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
@@ -1170,7 +1197,7 @@
       <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="22"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
@@ -1181,7 +1208,7 @@
       <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="22"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="6" t="s">
         <v>8</v>
       </c>
@@ -1194,7 +1221,7 @@
       <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="22"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="6" t="s">
         <v>13</v>
       </c>
@@ -1207,7 +1234,7 @@
       <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="22"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="6" t="s">
         <v>15</v>
       </c>
@@ -1220,7 +1247,7 @@
       <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="22"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="6" t="s">
         <v>17</v>
       </c>
@@ -1233,7 +1260,7 @@
       <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="22"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="6" t="s">
         <v>19</v>
       </c>
@@ -1246,7 +1273,7 @@
       <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="B12" s="22"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="6" t="s">
         <v>21</v>
       </c>
@@ -1259,7 +1286,7 @@
       <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="B13" s="22"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="6" t="s">
         <v>23</v>
       </c>
@@ -1272,7 +1299,7 @@
       <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="B14" s="22"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="6" t="s">
         <v>25</v>
       </c>
@@ -1285,7 +1312,7 @@
       <c r="A15" s="13">
         <v>14</v>
       </c>
-      <c r="B15" s="22"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="6" t="s">
         <v>27</v>
       </c>
@@ -1298,7 +1325,7 @@
       <c r="A16" s="13">
         <v>15</v>
       </c>
-      <c r="B16" s="22"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="6" t="s">
         <v>29</v>
       </c>
@@ -1311,7 +1338,7 @@
       <c r="A17" s="13">
         <v>16</v>
       </c>
-      <c r="B17" s="22"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="6" t="s">
         <v>31</v>
       </c>
@@ -1324,7 +1351,7 @@
       <c r="A18" s="13">
         <v>17</v>
       </c>
-      <c r="B18" s="22"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="6" t="s">
         <v>33</v>
       </c>
@@ -1337,7 +1364,7 @@
       <c r="A19" s="13">
         <v>18</v>
       </c>
-      <c r="B19" s="22"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="6" t="s">
         <v>35</v>
       </c>
@@ -1350,7 +1377,7 @@
       <c r="A20" s="13">
         <v>19</v>
       </c>
-      <c r="B20" s="22"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="6" t="s">
         <v>37</v>
       </c>
@@ -1363,7 +1390,7 @@
       <c r="A21" s="13">
         <v>20</v>
       </c>
-      <c r="B21" s="22"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="6" t="s">
         <v>39</v>
       </c>
@@ -1376,7 +1403,7 @@
       <c r="A22" s="13">
         <v>21</v>
       </c>
-      <c r="B22" s="22"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="6" t="s">
         <v>41</v>
       </c>
@@ -1389,7 +1416,7 @@
       <c r="A23" s="13">
         <v>22</v>
       </c>
-      <c r="B23" s="22"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="6" t="s">
         <v>43</v>
       </c>
@@ -1402,7 +1429,7 @@
       <c r="A24" s="13">
         <v>23</v>
       </c>
-      <c r="B24" s="22"/>
+      <c r="B24" s="25"/>
       <c r="C24" s="6" t="s">
         <v>45</v>
       </c>
@@ -1415,7 +1442,7 @@
       <c r="A25" s="13">
         <v>24</v>
       </c>
-      <c r="B25" s="22"/>
+      <c r="B25" s="25"/>
       <c r="C25" s="6" t="s">
         <v>47</v>
       </c>
@@ -1428,7 +1455,7 @@
       <c r="A26" s="13">
         <v>25</v>
       </c>
-      <c r="B26" s="22"/>
+      <c r="B26" s="25"/>
       <c r="C26" s="6" t="s">
         <v>49</v>
       </c>
@@ -1441,7 +1468,7 @@
       <c r="A27" s="13">
         <v>26</v>
       </c>
-      <c r="B27" s="22"/>
+      <c r="B27" s="25"/>
       <c r="C27" s="6" t="s">
         <v>51</v>
       </c>
@@ -1454,7 +1481,7 @@
       <c r="A28" s="13">
         <v>27</v>
       </c>
-      <c r="B28" s="22"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="6" t="s">
         <v>53</v>
       </c>
@@ -1467,7 +1494,7 @@
       <c r="A29" s="13">
         <v>28</v>
       </c>
-      <c r="B29" s="22"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="6" t="s">
         <v>55</v>
       </c>
@@ -1480,7 +1507,7 @@
       <c r="A30" s="13">
         <v>29</v>
       </c>
-      <c r="B30" s="22"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="6" t="s">
         <v>57</v>
       </c>
@@ -1493,7 +1520,7 @@
       <c r="A31" s="13">
         <v>30</v>
       </c>
-      <c r="B31" s="22"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="6" t="s">
         <v>59</v>
       </c>
@@ -1506,7 +1533,7 @@
       <c r="A32" s="13">
         <v>31</v>
       </c>
-      <c r="B32" s="22"/>
+      <c r="B32" s="25"/>
       <c r="C32" s="6" t="s">
         <v>61</v>
       </c>
@@ -1519,7 +1546,7 @@
       <c r="A33" s="13">
         <v>32</v>
       </c>
-      <c r="B33" s="22"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="6" t="s">
         <v>63</v>
       </c>
@@ -1532,7 +1559,7 @@
       <c r="A34" s="13">
         <v>33</v>
       </c>
-      <c r="B34" s="22"/>
+      <c r="B34" s="25"/>
       <c r="C34" s="6" t="s">
         <v>65</v>
       </c>
@@ -1545,7 +1572,7 @@
       <c r="A35" s="13">
         <v>34</v>
       </c>
-      <c r="B35" s="22"/>
+      <c r="B35" s="25"/>
       <c r="C35" s="6" t="s">
         <v>67</v>
       </c>
@@ -1558,7 +1585,7 @@
       <c r="A36" s="13">
         <v>35</v>
       </c>
-      <c r="B36" s="22"/>
+      <c r="B36" s="25"/>
       <c r="C36" s="6" t="s">
         <v>69</v>
       </c>
@@ -1571,7 +1598,7 @@
       <c r="A37" s="13">
         <v>36</v>
       </c>
-      <c r="B37" s="22"/>
+      <c r="B37" s="25"/>
       <c r="C37" s="6" t="s">
         <v>71</v>
       </c>
@@ -1584,7 +1611,7 @@
       <c r="A38" s="13">
         <v>37</v>
       </c>
-      <c r="B38" s="22"/>
+      <c r="B38" s="25"/>
       <c r="C38" s="6" t="s">
         <v>73</v>
       </c>
@@ -1597,7 +1624,7 @@
       <c r="A39" s="13">
         <v>38</v>
       </c>
-      <c r="B39" s="22"/>
+      <c r="B39" s="25"/>
       <c r="C39" s="6" t="s">
         <v>75</v>
       </c>
@@ -1610,7 +1637,7 @@
       <c r="A40" s="13">
         <v>39</v>
       </c>
-      <c r="B40" s="22"/>
+      <c r="B40" s="25"/>
       <c r="C40" s="6"/>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
@@ -1619,7 +1646,7 @@
       <c r="A41" s="13">
         <v>40</v>
       </c>
-      <c r="B41" s="22"/>
+      <c r="B41" s="25"/>
       <c r="C41" s="6" t="s">
         <v>77</v>
       </c>
@@ -1630,7 +1657,7 @@
       <c r="A42" s="13">
         <v>41</v>
       </c>
-      <c r="B42" s="22"/>
+      <c r="B42" s="25"/>
       <c r="C42" s="6" t="s">
         <v>78</v>
       </c>
@@ -1641,7 +1668,7 @@
       <c r="A43" s="13">
         <v>42</v>
       </c>
-      <c r="B43" s="22"/>
+      <c r="B43" s="25"/>
       <c r="C43" s="6" t="s">
         <v>79</v>
       </c>
@@ -1652,7 +1679,7 @@
       <c r="A44" s="13">
         <v>43</v>
       </c>
-      <c r="B44" s="22"/>
+      <c r="B44" s="25"/>
       <c r="C44" s="6" t="s">
         <v>80</v>
       </c>
@@ -1663,7 +1690,7 @@
       <c r="A45" s="13">
         <v>44</v>
       </c>
-      <c r="B45" s="22"/>
+      <c r="B45" s="25"/>
       <c r="C45" s="6" t="s">
         <v>3</v>
       </c>
@@ -1674,7 +1701,7 @@
       <c r="A46" s="13">
         <v>45</v>
       </c>
-      <c r="B46" s="22"/>
+      <c r="B46" s="25"/>
       <c r="C46" s="6" t="s">
         <v>81</v>
       </c>
@@ -1685,7 +1712,7 @@
       <c r="A47" s="13">
         <v>46</v>
       </c>
-      <c r="B47" s="22"/>
+      <c r="B47" s="25"/>
       <c r="C47" s="6" t="s">
         <v>82</v>
       </c>
@@ -1696,7 +1723,7 @@
       <c r="A48" s="13">
         <v>47</v>
       </c>
-      <c r="B48" s="22"/>
+      <c r="B48" s="25"/>
       <c r="C48" s="6" t="s">
         <v>83</v>
       </c>
@@ -1707,7 +1734,7 @@
       <c r="A49" s="13">
         <v>48</v>
       </c>
-      <c r="B49" s="22"/>
+      <c r="B49" s="25"/>
       <c r="C49" s="6" t="s">
         <v>84</v>
       </c>
@@ -1718,7 +1745,7 @@
       <c r="A50" s="13">
         <v>49</v>
       </c>
-      <c r="B50" s="22"/>
+      <c r="B50" s="25"/>
       <c r="C50" s="6" t="s">
         <v>85</v>
       </c>
@@ -1729,7 +1756,7 @@
       <c r="A51" s="13">
         <v>50</v>
       </c>
-      <c r="B51" s="22"/>
+      <c r="B51" s="25"/>
       <c r="C51" s="6" t="s">
         <v>86</v>
       </c>
@@ -1740,7 +1767,7 @@
       <c r="A52" s="13">
         <v>51</v>
       </c>
-      <c r="B52" s="21" t="s">
+      <c r="B52" s="24" t="s">
         <v>87</v>
       </c>
       <c r="C52" s="5" t="s">
@@ -1755,7 +1782,7 @@
       <c r="A53" s="13">
         <v>52</v>
       </c>
-      <c r="B53" s="21"/>
+      <c r="B53" s="24"/>
       <c r="C53" s="5" t="s">
         <v>89</v>
       </c>
@@ -1766,7 +1793,7 @@
       <c r="A54" s="13">
         <v>53</v>
       </c>
-      <c r="B54" s="21"/>
+      <c r="B54" s="24"/>
       <c r="C54" s="5" t="s">
         <v>91</v>
       </c>
@@ -1777,7 +1804,7 @@
       <c r="A55" s="13">
         <v>54</v>
       </c>
-      <c r="B55" s="21"/>
+      <c r="B55" s="24"/>
       <c r="C55" s="5" t="s">
         <v>92</v>
       </c>
@@ -1788,7 +1815,7 @@
       <c r="A56" s="13">
         <v>55</v>
       </c>
-      <c r="B56" s="21"/>
+      <c r="B56" s="24"/>
       <c r="C56" s="5" t="s">
         <v>93</v>
       </c>
@@ -1799,7 +1826,7 @@
       <c r="A57" s="13">
         <v>56</v>
       </c>
-      <c r="B57" s="21"/>
+      <c r="B57" s="24"/>
       <c r="C57" s="5" t="s">
         <v>94</v>
       </c>
@@ -1810,7 +1837,7 @@
       <c r="A58" s="13">
         <v>57</v>
       </c>
-      <c r="B58" s="21"/>
+      <c r="B58" s="24"/>
       <c r="C58" s="5" t="s">
         <v>95</v>
       </c>
@@ -1821,7 +1848,7 @@
       <c r="A59" s="13">
         <v>58</v>
       </c>
-      <c r="B59" s="21"/>
+      <c r="B59" s="24"/>
       <c r="C59" s="5" t="s">
         <v>96</v>
       </c>
@@ -1832,7 +1859,7 @@
       <c r="A60" s="13">
         <v>59</v>
       </c>
-      <c r="B60" s="21"/>
+      <c r="B60" s="24"/>
       <c r="C60" s="5" t="s">
         <v>97</v>
       </c>
@@ -1843,7 +1870,7 @@
       <c r="A61" s="13">
         <v>60</v>
       </c>
-      <c r="B61" s="21"/>
+      <c r="B61" s="24"/>
       <c r="C61" s="5" t="s">
         <v>98</v>
       </c>
@@ -1854,7 +1881,7 @@
       <c r="A62" s="13">
         <v>61</v>
       </c>
-      <c r="B62" s="21"/>
+      <c r="B62" s="24"/>
       <c r="C62" s="5" t="s">
         <v>99</v>
       </c>
@@ -1865,7 +1892,7 @@
       <c r="A63" s="13">
         <v>62</v>
       </c>
-      <c r="B63" s="21"/>
+      <c r="B63" s="24"/>
       <c r="C63" s="5" t="s">
         <v>100</v>
       </c>
@@ -1876,7 +1903,7 @@
       <c r="A64" s="13">
         <v>63</v>
       </c>
-      <c r="B64" s="21"/>
+      <c r="B64" s="24"/>
       <c r="C64" s="5" t="s">
         <v>101</v>
       </c>
@@ -1887,7 +1914,7 @@
       <c r="A65" s="13">
         <v>64</v>
       </c>
-      <c r="B65" s="21"/>
+      <c r="B65" s="24"/>
       <c r="C65" s="5" t="s">
         <v>102</v>
       </c>
@@ -1898,7 +1925,7 @@
       <c r="A66" s="13">
         <v>65</v>
       </c>
-      <c r="B66" s="21"/>
+      <c r="B66" s="24"/>
       <c r="C66" s="5" t="s">
         <v>102</v>
       </c>
@@ -1909,7 +1936,7 @@
       <c r="A67" s="13">
         <v>66</v>
       </c>
-      <c r="B67" s="21"/>
+      <c r="B67" s="24"/>
       <c r="C67" s="5" t="s">
         <v>103</v>
       </c>
@@ -1920,7 +1947,7 @@
       <c r="A68" s="13">
         <v>67</v>
       </c>
-      <c r="B68" s="21"/>
+      <c r="B68" s="24"/>
       <c r="C68" s="5" t="s">
         <v>104</v>
       </c>
@@ -1931,7 +1958,7 @@
       <c r="A69" s="13">
         <v>68</v>
       </c>
-      <c r="B69" s="21"/>
+      <c r="B69" s="24"/>
       <c r="C69" s="7" t="s">
         <v>105</v>
       </c>
@@ -1942,7 +1969,7 @@
       <c r="A70" s="13">
         <v>69</v>
       </c>
-      <c r="B70" s="21"/>
+      <c r="B70" s="24"/>
       <c r="C70" s="7" t="s">
         <v>106</v>
       </c>
@@ -1953,7 +1980,7 @@
       <c r="A71" s="13">
         <v>70</v>
       </c>
-      <c r="B71" s="21"/>
+      <c r="B71" s="24"/>
       <c r="C71" s="5" t="s">
         <v>107</v>
       </c>
@@ -1964,7 +1991,7 @@
       <c r="A72" s="13">
         <v>71</v>
       </c>
-      <c r="B72" s="21"/>
+      <c r="B72" s="24"/>
       <c r="C72" s="5" t="s">
         <v>108</v>
       </c>
@@ -1975,7 +2002,7 @@
       <c r="A73" s="13">
         <v>72</v>
       </c>
-      <c r="B73" s="21" t="s">
+      <c r="B73" s="24" t="s">
         <v>127</v>
       </c>
       <c r="C73" s="8"/>
@@ -1986,7 +2013,7 @@
       <c r="A74" s="13">
         <v>73</v>
       </c>
-      <c r="B74" s="21"/>
+      <c r="B74" s="24"/>
       <c r="C74" s="8" t="s">
         <v>110</v>
       </c>
@@ -1999,7 +2026,7 @@
       <c r="A75" s="13">
         <v>74</v>
       </c>
-      <c r="B75" s="21"/>
+      <c r="B75" s="24"/>
       <c r="C75" s="9" t="s">
         <v>111</v>
       </c>
@@ -2010,7 +2037,7 @@
       <c r="A76" s="13">
         <v>75</v>
       </c>
-      <c r="B76" s="21"/>
+      <c r="B76" s="24"/>
       <c r="C76" s="8" t="s">
         <v>112</v>
       </c>
@@ -2021,7 +2048,7 @@
       <c r="A77" s="13">
         <v>76</v>
       </c>
-      <c r="B77" s="21"/>
+      <c r="B77" s="24"/>
       <c r="C77" s="9" t="s">
         <v>113</v>
       </c>
@@ -2032,7 +2059,7 @@
       <c r="A78" s="13">
         <v>77</v>
       </c>
-      <c r="B78" s="21"/>
+      <c r="B78" s="24"/>
       <c r="C78" s="8" t="s">
         <v>114</v>
       </c>
@@ -2043,7 +2070,7 @@
       <c r="A79" s="13">
         <v>78</v>
       </c>
-      <c r="B79" s="21"/>
+      <c r="B79" s="24"/>
       <c r="C79" s="9" t="s">
         <v>115</v>
       </c>
@@ -2054,7 +2081,7 @@
       <c r="A80" s="13">
         <v>79</v>
       </c>
-      <c r="B80" s="21"/>
+      <c r="B80" s="24"/>
       <c r="C80" s="8" t="s">
         <v>116</v>
       </c>
@@ -2065,7 +2092,7 @@
       <c r="A81" s="13">
         <v>80</v>
       </c>
-      <c r="B81" s="21"/>
+      <c r="B81" s="24"/>
       <c r="C81" s="9" t="s">
         <v>117</v>
       </c>
@@ -2076,7 +2103,7 @@
       <c r="A82" s="13">
         <v>81</v>
       </c>
-      <c r="B82" s="21"/>
+      <c r="B82" s="24"/>
       <c r="C82" s="8" t="s">
         <v>118</v>
       </c>
@@ -2087,7 +2114,7 @@
       <c r="A83" s="13">
         <v>82</v>
       </c>
-      <c r="B83" s="21"/>
+      <c r="B83" s="24"/>
       <c r="C83" s="9" t="s">
         <v>119</v>
       </c>
@@ -2098,7 +2125,7 @@
       <c r="A84" s="13">
         <v>83</v>
       </c>
-      <c r="B84" s="21"/>
+      <c r="B84" s="24"/>
       <c r="C84" s="8" t="s">
         <v>120</v>
       </c>
@@ -2109,7 +2136,7 @@
       <c r="A85" s="13">
         <v>84</v>
       </c>
-      <c r="B85" s="21"/>
+      <c r="B85" s="24"/>
       <c r="C85" s="7" t="s">
         <v>121</v>
       </c>
@@ -2120,7 +2147,7 @@
       <c r="A86" s="13">
         <v>85</v>
       </c>
-      <c r="B86" s="21"/>
+      <c r="B86" s="24"/>
       <c r="C86" s="8" t="s">
         <v>122</v>
       </c>
@@ -2131,7 +2158,7 @@
       <c r="A87" s="13">
         <v>86</v>
       </c>
-      <c r="B87" s="21"/>
+      <c r="B87" s="24"/>
       <c r="C87" s="9" t="s">
         <v>123</v>
       </c>
@@ -2142,7 +2169,7 @@
       <c r="A88" s="13">
         <v>87</v>
       </c>
-      <c r="B88" s="21"/>
+      <c r="B88" s="24"/>
       <c r="C88" s="8" t="s">
         <v>124</v>
       </c>
@@ -2153,7 +2180,7 @@
       <c r="A89" s="13">
         <v>88</v>
       </c>
-      <c r="B89" s="21"/>
+      <c r="B89" s="24"/>
       <c r="C89" s="9" t="s">
         <v>125</v>
       </c>
@@ -2164,7 +2191,7 @@
       <c r="A90" s="13">
         <v>89</v>
       </c>
-      <c r="B90" s="21"/>
+      <c r="B90" s="24"/>
       <c r="C90" s="5" t="s">
         <v>128</v>
       </c>
@@ -2175,7 +2202,7 @@
       <c r="A91" s="13">
         <v>90</v>
       </c>
-      <c r="B91" s="21" t="s">
+      <c r="B91" s="24" t="s">
         <v>129</v>
       </c>
       <c r="C91" s="5" t="s">
@@ -2188,7 +2215,7 @@
       <c r="A92" s="13">
         <v>91</v>
       </c>
-      <c r="B92" s="21"/>
+      <c r="B92" s="24"/>
       <c r="C92" s="5" t="s">
         <v>131</v>
       </c>
@@ -2199,7 +2226,7 @@
       <c r="A93" s="13">
         <v>92</v>
       </c>
-      <c r="B93" s="21"/>
+      <c r="B93" s="24"/>
       <c r="C93" s="5" t="s">
         <v>132</v>
       </c>
@@ -2227,7 +2254,7 @@
       <c r="A95" s="13">
         <v>94</v>
       </c>
-      <c r="B95" s="19" t="s">
+      <c r="B95" s="22" t="s">
         <v>137</v>
       </c>
       <c r="C95" s="5" t="s">
@@ -2242,7 +2269,7 @@
       <c r="A96" s="13">
         <v>95</v>
       </c>
-      <c r="B96" s="23"/>
+      <c r="B96" s="26"/>
       <c r="C96" s="5" t="s">
         <v>140</v>
       </c>
@@ -2253,7 +2280,7 @@
       <c r="A97" s="13">
         <v>96</v>
       </c>
-      <c r="B97" s="23"/>
+      <c r="B97" s="26"/>
       <c r="C97" s="7" t="s">
         <v>141</v>
       </c>
@@ -2264,7 +2291,7 @@
       <c r="A98" s="13">
         <v>97</v>
       </c>
-      <c r="B98" s="23"/>
+      <c r="B98" s="26"/>
       <c r="C98" s="5" t="s">
         <v>142</v>
       </c>
@@ -2275,7 +2302,7 @@
       <c r="A99" s="13">
         <v>98</v>
       </c>
-      <c r="B99" s="23"/>
+      <c r="B99" s="26"/>
       <c r="C99" s="5" t="s">
         <v>143</v>
       </c>
@@ -2286,7 +2313,7 @@
       <c r="A100" s="13">
         <v>99</v>
       </c>
-      <c r="B100" s="23"/>
+      <c r="B100" s="26"/>
       <c r="C100" s="5" t="s">
         <v>144</v>
       </c>
@@ -2297,7 +2324,7 @@
       <c r="A101" s="13">
         <v>100</v>
       </c>
-      <c r="B101" s="23"/>
+      <c r="B101" s="26"/>
       <c r="C101" s="5" t="s">
         <v>145</v>
       </c>
@@ -2308,7 +2335,7 @@
       <c r="A102" s="13">
         <v>101</v>
       </c>
-      <c r="B102" s="23"/>
+      <c r="B102" s="26"/>
       <c r="C102" s="5" t="s">
         <v>146</v>
       </c>
@@ -2319,7 +2346,7 @@
       <c r="A103" s="13">
         <v>102</v>
       </c>
-      <c r="B103" s="20"/>
+      <c r="B103" s="23"/>
       <c r="C103" s="5" t="s">
         <v>147</v>
       </c>
@@ -2330,7 +2357,7 @@
       <c r="A104" s="13">
         <v>103</v>
       </c>
-      <c r="B104" s="18" t="s">
+      <c r="B104" s="21" t="s">
         <v>148</v>
       </c>
       <c r="C104" s="5" t="s">
@@ -2364,8 +2391,10 @@
       <c r="E106" s="4"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="14"/>
-      <c r="B107" s="18" t="s">
+      <c r="A107" s="14">
+        <v>106</v>
+      </c>
+      <c r="B107" s="21" t="s">
         <v>153</v>
       </c>
       <c r="C107" s="5" t="s">
@@ -2375,8 +2404,10 @@
       <c r="E107" s="4"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="14"/>
-      <c r="B108" s="18" t="s">
+      <c r="A108" s="14">
+        <v>107</v>
+      </c>
+      <c r="B108" s="21" t="s">
         <v>154</v>
       </c>
       <c r="C108" s="5" t="s">
@@ -2385,9 +2416,66 @@
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
     </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="14">
+        <v>108</v>
+      </c>
+      <c r="B109" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="C109" s="5"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="14">
+        <v>109</v>
+      </c>
+      <c r="B110" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="C110" s="5"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="14">
+        <v>110</v>
+      </c>
+      <c r="B111" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="14">
+        <v>111</v>
+      </c>
+      <c r="B112" s="26"/>
+      <c r="C112" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="14">
+        <v>112</v>
+      </c>
+      <c r="B113" s="23"/>
+      <c r="C113" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="B111:B113"/>
     <mergeCell ref="B52:B72"/>
     <mergeCell ref="B2:B51"/>
     <mergeCell ref="B73:B90"/>
